--- a/config_12.15/activity_year_config.xlsx
+++ b/config_12.15/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
   <si>
     <t>id|行号</t>
   </si>
@@ -469,6 +469,38 @@
   </si>
   <si>
     <t>"act_038_s12lhsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_jzhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_jzsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +559,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +622,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +680,25 @@
     </xf>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -920,13 +977,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD22"/>
+  <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,15 +993,15 @@
     <col min="3" max="3" width="15.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="43.875" style="4" customWidth="1"/>
     <col min="12" max="12" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="4" customWidth="1"/>
     <col min="15" max="15" width="18.125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="29.625" style="4" customWidth="1"/>
@@ -2145,9 +2202,176 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
+    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24">
+        <v>21</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25">
+        <v>1</v>
+      </c>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="27">
+        <v>44180.333333333336</v>
+      </c>
+      <c r="S22" s="26">
+        <v>1607990400</v>
+      </c>
+      <c r="T22" s="27">
+        <v>44190.999988425923</v>
+      </c>
+      <c r="U22" s="28">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24">
+        <v>22</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>2</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25">
+        <v>1</v>
+      </c>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="27">
+        <v>44180.333333333336</v>
+      </c>
+      <c r="S23" s="26">
+        <v>1607990400</v>
+      </c>
+      <c r="T23" s="27">
+        <v>44190.999988425923</v>
+      </c>
+      <c r="U23" s="28">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>3</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25">
+        <v>1</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="27">
+        <v>44180.333333333336</v>
+      </c>
+      <c r="S24" s="26">
+        <v>1607990400</v>
+      </c>
+      <c r="T24" s="27">
+        <v>44190.999988425923</v>
+      </c>
+      <c r="U24" s="28">
+        <v>1608566399</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_12.15/activity_year_config.xlsx
+++ b/config_12.15/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>id|行号</t>
   </si>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -980,10 +984,10 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2362,7 @@
         <v>124</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="R24" s="27">
         <v>44180.333333333336</v>

--- a/config_12.15/activity_year_config.xlsx
+++ b/config_12.15/activity_year_config.xlsx
@@ -448,10 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>双十二兑换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12dhhl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -460,10 +456,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>双十二礼盒收集榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12lhsjb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -505,6 +497,14 @@
   </si>
   <si>
     <t>hot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +987,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,16 +2108,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>23</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="20" t="s">
         <v>49</v>
@@ -2161,7 +2161,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>23</v>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="20" t="s">
         <v>49</v>
@@ -2214,7 +2214,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="25">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>23</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="25" t="s">
         <v>49</v>
@@ -2271,7 +2271,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>23</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="O23" s="25"/>
       <c r="P23" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="25" t="s">
         <v>49</v>
@@ -2328,7 +2328,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="25">
         <v>0</v>
@@ -2359,10 +2359,10 @@
       </c>
       <c r="O24" s="25"/>
       <c r="P24" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R24" s="27">
         <v>44180.333333333336</v>
